--- a/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.94</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.94</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.81</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>90.81</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3881</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
@@ -1188,12 +1188,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004192</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004193</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>52.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.8817</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>23.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.3933</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -713,74 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005515</t>
+          <t>162907</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华中小市值量化优选股票A</t>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>92.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005516</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,36 +983,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>004192</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>招商中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.48</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>94.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8817</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1091,36 +1021,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>004193</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>招商中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.41</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>94.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3933</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1129,36 +1059,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>005515</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
+          <t>银华中小市值量化优选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>90.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005516</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1172,96 +1140,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600500-中化国际.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.28</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.53</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -549,6 +566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -711,214 +860,6 @@
       </c>
       <c r="H4" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007994</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3881</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007995</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1144</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006440</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006441</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -983,36 +924,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>007994</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>华夏中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.3881</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1021,36 +962,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>007995</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>华夏中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.1144</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1059,36 +1000,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005515</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华中小市值量化优选股票A</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1097,36 +1038,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005516</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华中小市值量化优选股票C</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1135,6 +1076,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005515</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005516</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
